--- a/TestData/Data.xlsx
+++ b/TestData/Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TestNGWS\TestNGFramework\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TSWS\TestNGFramework\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35602993-2E11-464A-82E1-7EBB057E2C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9157628F-3FDD-4ACF-8585-019F67E94C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="2810" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <t>bheereshkalasad@gmail.com</t>
   </si>
   <si>
-    <t>Bheerya12312</t>
+    <t>bheerya1234</t>
   </si>
 </sst>
 </file>
@@ -351,7 +351,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
